--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="5">
   <si>
     <t>Col1</t>
   </si>
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,13 +224,109 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -495,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -549,6 +645,18 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,12 +1077,30 @@
       <c r="AA1" t="s" s="52">
         <v>4</v>
       </c>
+      <c r="AB1" t="s" s="54">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s" s="56">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s" s="58">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s" s="60">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s" s="62">
+        <v>4</v>
+      </c>
+      <c r="AG1" t="s" s="64">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="51">
+      <c r="B2" t="s" s="63">
         <v>3</v>
       </c>
     </row>
@@ -1007,6 +1133,12 @@
     <hyperlink ref="B2" r:id="rId25"/>
     <hyperlink ref="B2" r:id="rId26"/>
     <hyperlink ref="B2" r:id="rId27"/>
+    <hyperlink ref="B2" r:id="rId28"/>
+    <hyperlink ref="B2" r:id="rId29"/>
+    <hyperlink ref="B2" r:id="rId30"/>
+    <hyperlink ref="B2" r:id="rId31"/>
+    <hyperlink ref="B2" r:id="rId32"/>
+    <hyperlink ref="B2" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
